--- a/data/trans_orig/Q24A01-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/Q24A01-Provincia-trans_orig.xlsx
@@ -704,40 +704,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>15.35320263189288</v>
+        <v>15.50325647071402</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>15.81961551107766</v>
+        <v>15.81229975104216</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>11.99240446527278</v>
+        <v>12.07436453649534</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>11.78761201500744</v>
+        <v>12.01738565525789</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>11.78024916824676</v>
+        <v>11.71638867806727</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>11.31437761274113</v>
+        <v>11.30884080332701</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>9.2929694099426</v>
+        <v>9.164401172793642</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>8.967861230949003</v>
+        <v>9.016525292622386</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>14.34897679553056</v>
+        <v>14.37975365147522</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>14.17730073088679</v>
+        <v>14.39919392491308</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>11.46951967000535</v>
+        <v>11.37311217927591</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>11.01106012918899</v>
+        <v>10.93568849756081</v>
       </c>
     </row>
     <row r="6">
@@ -748,40 +748,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>18.74290193628992</v>
+        <v>18.65151388024142</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>19.54209994703431</v>
+        <v>19.47664523101471</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>15.46126918382415</v>
+        <v>15.94012821092661</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>16.09795865280771</v>
+        <v>16.0669820580263</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>15.17534055378452</v>
+        <v>15.32473895990662</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>14.27738270907014</v>
+        <v>14.24381246733419</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>12.44111985368425</v>
+        <v>12.36149928248603</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>11.38115239538778</v>
+        <v>11.4192368377452</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>16.93285534159664</v>
+        <v>16.79745007186377</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>16.90839180918428</v>
+        <v>16.98189497713127</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>14.10341523068608</v>
+        <v>13.81065076618259</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>13.53271810666154</v>
+        <v>13.45428865585704</v>
       </c>
     </row>
     <row r="7">
@@ -805,7 +805,7 @@
         <v>14.03412998700732</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>10.63466962696127</v>
+        <v>10.63466962696128</v>
       </c>
       <c r="G7" s="5" t="n">
         <v>13.30914146549353</v>
@@ -817,7 +817,7 @@
         <v>10.81686448826329</v>
       </c>
       <c r="J7" s="5" t="n">
-        <v>7.946157220891933</v>
+        <v>7.946157220891932</v>
       </c>
       <c r="K7" s="5" t="n">
         <v>15.90616432375903</v>
@@ -840,40 +840,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>16.36408656593506</v>
+        <v>16.24164902884015</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>15.02448576898908</v>
+        <v>15.06095135075492</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>13.05286723761495</v>
+        <v>12.9737432543598</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>9.056332197111441</v>
+        <v>9.040614942574898</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>11.95622873445624</v>
+        <v>12.05827049526883</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>13.20871747831803</v>
+        <v>13.26557770161548</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>9.733189902147663</v>
+        <v>9.75377616592861</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>6.987478832343598</v>
+        <v>7.064396554932817</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>14.96676564271489</v>
+        <v>14.8801645194838</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>14.58110767543918</v>
+        <v>14.57484396694301</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>11.96514821509542</v>
+        <v>11.88026973162339</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>8.370245935840952</v>
+        <v>8.53466351052594</v>
       </c>
     </row>
     <row r="9">
@@ -884,40 +884,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>19.14662188279969</v>
+        <v>18.91840445888623</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>18.49233624969701</v>
+        <v>18.19565754929808</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>15.13325870772406</v>
+        <v>15.16256011883217</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>12.80361990350065</v>
+        <v>13.04259778184638</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>14.84191967476836</v>
+        <v>14.80493564023301</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>15.8608383235457</v>
+        <v>15.82168081558457</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>12.0886440487413</v>
+        <v>12.03890888164057</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>8.90578233869312</v>
+        <v>9.003132293237819</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>17.0359115286156</v>
+        <v>16.98336874109749</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>16.69457826686826</v>
+        <v>16.73018342518846</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>13.53300358720276</v>
+        <v>13.52245542106223</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>10.82630528362275</v>
+        <v>10.77426552901553</v>
       </c>
     </row>
     <row r="10">
@@ -941,7 +941,7 @@
         <v>12.67382583544522</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>15.0810889097829</v>
+        <v>15.08108890978289</v>
       </c>
       <c r="G10" s="5" t="n">
         <v>10.46318429888672</v>
@@ -953,7 +953,7 @@
         <v>10.71779334174394</v>
       </c>
       <c r="J10" s="5" t="n">
-        <v>9.388650295413534</v>
+        <v>9.388650295413537</v>
       </c>
       <c r="K10" s="5" t="n">
         <v>13.91599934706317</v>
@@ -976,40 +976,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>14.66426560038015</v>
+        <v>14.57348356150062</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>14.47396039013922</v>
+        <v>14.44661533152913</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>11.26887750966628</v>
+        <v>11.17116557001533</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>13.25198660126739</v>
+        <v>12.96644643885799</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>9.251732239051833</v>
+        <v>9.220236845630703</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>10.93901194768529</v>
+        <v>11.13261821945378</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>9.297949952197765</v>
+        <v>9.167324315066166</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>8.299387827841006</v>
+        <v>8.096811413432786</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>12.91492260713516</v>
+        <v>12.95561903384962</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>13.52304245968758</v>
+        <v>13.5011424506503</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>10.76118813128521</v>
+        <v>10.66629978131872</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>11.15298420966621</v>
+        <v>11.24205756620419</v>
       </c>
     </row>
     <row r="12">
@@ -1020,40 +1020,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>17.05053237760556</v>
+        <v>17.06796130673476</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>17.63192547489158</v>
+        <v>17.61478939035363</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>14.35417324094057</v>
+        <v>14.36212232599407</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>17.79170682112651</v>
+        <v>17.4438360921296</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>11.9976484784978</v>
+        <v>12.01167613153018</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>14.83472456936281</v>
+        <v>15.01861547813325</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>12.37087520573812</v>
+        <v>12.13042324061201</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>10.63607134243957</v>
+        <v>10.60013256227765</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>14.88432607472316</v>
+        <v>14.87476260745332</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>15.86579200948151</v>
+        <v>15.9222309917003</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>12.98369365355939</v>
+        <v>12.91103101450448</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>13.90642613760171</v>
+        <v>14.02630935805683</v>
       </c>
     </row>
     <row r="13">
@@ -1077,7 +1077,7 @@
         <v>14.17873448040328</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>12.59779327622986</v>
+        <v>12.59779327622985</v>
       </c>
       <c r="G13" s="5" t="n">
         <v>13.594183231361</v>
@@ -1089,7 +1089,7 @@
         <v>9.623512431939844</v>
       </c>
       <c r="J13" s="5" t="n">
-        <v>8.833123198301051</v>
+        <v>8.833123198301049</v>
       </c>
       <c r="K13" s="5" t="n">
         <v>14.44569804867128</v>
@@ -1112,40 +1112,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>13.82528523555001</v>
+        <v>13.90488775245147</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>14.96840598103889</v>
+        <v>14.92311171933494</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>12.72788915946807</v>
+        <v>12.72251700616601</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>10.52975828538777</v>
+        <v>10.50672390209978</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>12.10364482006135</v>
+        <v>12.06062442045588</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>11.41950096610415</v>
+        <v>11.38312650590292</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>8.265426969792459</v>
+        <v>8.297248947097744</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>7.540327059647478</v>
+        <v>7.58928136235706</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>13.50845224467624</v>
+        <v>13.53414095911646</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>13.84748321519046</v>
+        <v>13.7633579671584</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>11.10721158357291</v>
+        <v>11.15288125288388</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>9.538517035672699</v>
+        <v>9.595825678546129</v>
       </c>
     </row>
     <row r="15">
@@ -1156,40 +1156,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>16.3031347982183</v>
+        <v>16.15528438089288</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>19.31854343507566</v>
+        <v>19.36276271218518</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>15.55679288811254</v>
+        <v>15.56070745947494</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>14.92697378673474</v>
+        <v>14.99001213444899</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>15.31061842439459</v>
+        <v>15.39766831328188</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>14.94426423477795</v>
+        <v>14.96009991943345</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>11.42029615459609</v>
+        <v>11.54027365695232</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>10.73555371161161</v>
+        <v>10.62313913978533</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>15.46790735536519</v>
+        <v>15.48174410367553</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>16.85808422921383</v>
+        <v>16.63593603512876</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>13.30937672209867</v>
+        <v>13.21691273273996</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>12.35384551890111</v>
+        <v>12.49008418488966</v>
       </c>
     </row>
     <row r="16">
@@ -1213,7 +1213,7 @@
         <v>14.81927527729902</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>16.31922605120296</v>
+        <v>16.31922605120295</v>
       </c>
       <c r="G16" s="5" t="n">
         <v>11.30179794637206</v>
@@ -1248,40 +1248,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>16.28102327912163</v>
+        <v>16.20119015249674</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>14.18246124536881</v>
+        <v>14.47153117661706</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>12.77471547610102</v>
+        <v>12.87102933264696</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>15.02069414405463</v>
+        <v>14.99844360828533</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>9.452166523389327</v>
+        <v>9.584743863127221</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>9.030231648802683</v>
+        <v>9.173135248457765</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>10.02447086447511</v>
+        <v>9.984289512380503</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>11.48900766379374</v>
+        <v>11.6480964352788</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>13.9129451904353</v>
+        <v>13.99338289295915</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>12.62794524342747</v>
+        <v>12.66158305089188</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>12.09434701630412</v>
+        <v>12.09777653830984</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>13.86311152212131</v>
+        <v>13.74503738862267</v>
       </c>
     </row>
     <row r="18">
@@ -1292,40 +1292,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>21.55929319003576</v>
+        <v>21.94270725258331</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>18.58059022688865</v>
+        <v>18.89113641555416</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>17.31696346941071</v>
+        <v>17.45518366094381</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>17.86350541619911</v>
+        <v>17.73390906015423</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>13.26354560422935</v>
+        <v>13.59861674752312</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>13.09647486027543</v>
+        <v>13.37432168241172</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>13.80782937526635</v>
+        <v>13.80744550110473</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>14.65229129533546</v>
+        <v>14.81990237857498</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>18.08936338487747</v>
+        <v>17.86932252065324</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>15.81992635330219</v>
+        <v>15.81201854238132</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>15.29929335839989</v>
+        <v>15.30371452989854</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>16.09823450510858</v>
+        <v>16.10177298132789</v>
       </c>
     </row>
     <row r="19">
@@ -1361,7 +1361,7 @@
         <v>8.600462807240818</v>
       </c>
       <c r="J19" s="5" t="n">
-        <v>8.17565005179142</v>
+        <v>8.175650051791422</v>
       </c>
       <c r="K19" s="5" t="n">
         <v>14.63594444006658</v>
@@ -1373,7 +1373,7 @@
         <v>11.90707536313537</v>
       </c>
       <c r="N19" s="5" t="n">
-        <v>12.32355861512491</v>
+        <v>12.32355861512492</v>
       </c>
     </row>
     <row r="20">
@@ -1384,40 +1384,40 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>14.89599191275005</v>
+        <v>14.90362118769951</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>11.30952662849238</v>
+        <v>11.37517064412948</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>12.88672188876186</v>
+        <v>13.13206744091834</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>13.31752268595431</v>
+        <v>13.20120754219186</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>10.55421177108326</v>
+        <v>10.256741951368</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>9.317845256214266</v>
+        <v>9.249395776114483</v>
       </c>
       <c r="I20" s="5" t="n">
-        <v>7.204342426316169</v>
+        <v>7.416301602591663</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>7.16188399486419</v>
+        <v>7.11439880026529</v>
       </c>
       <c r="K20" s="5" t="n">
-        <v>13.77999226919276</v>
+        <v>13.66224994319166</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>10.81893891637496</v>
+        <v>10.99009170353157</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>10.79525531646381</v>
+        <v>10.74357080368664</v>
       </c>
       <c r="N20" s="5" t="n">
-        <v>11.07057906864137</v>
+        <v>11.09942592536083</v>
       </c>
     </row>
     <row r="21">
@@ -1428,40 +1428,40 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>16.92427787366752</v>
+        <v>16.95912121241684</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>15.488293789276</v>
+        <v>15.60903532440478</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>16.62181837190809</v>
+        <v>16.77858764450348</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>17.46011226400564</v>
+        <v>17.30219534876233</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>13.90749325227344</v>
+        <v>13.84859011686997</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>12.79474115170842</v>
+        <v>12.7145482339781</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>9.933699813639686</v>
+        <v>10.13569856363986</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>9.525013801007011</v>
+        <v>9.544184838693473</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>15.60590162533881</v>
+        <v>15.56749812863016</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>13.6751133146196</v>
+        <v>13.74079570667451</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>13.20394283049096</v>
+        <v>13.19540136561354</v>
       </c>
       <c r="N21" s="5" t="n">
-        <v>13.89578497026963</v>
+        <v>13.91303873235748</v>
       </c>
     </row>
     <row r="22">
@@ -1497,7 +1497,7 @@
         <v>12.40332019023958</v>
       </c>
       <c r="J22" s="5" t="n">
-        <v>9.234494827571771</v>
+        <v>9.234494827571773</v>
       </c>
       <c r="K22" s="5" t="n">
         <v>15.03412743249923</v>
@@ -1520,40 +1520,40 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>15.03785008394244</v>
+        <v>15.16469336758634</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>13.22114757059547</v>
+        <v>13.20147931265628</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>13.21020991254348</v>
+        <v>13.25780895842415</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>10.50406323428368</v>
+        <v>10.7197057213212</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>12.0362483852898</v>
+        <v>12.1704908003227</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>11.09891917068794</v>
+        <v>11.0274533170019</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>11.27098056476001</v>
+        <v>11.25270978296379</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>8.428450405922463</v>
+        <v>8.459625990447616</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>14.2096167841429</v>
+        <v>14.17446568277237</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>12.57168743988149</v>
+        <v>12.59063228858383</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>12.58139184784723</v>
+        <v>12.66466050203415</v>
       </c>
       <c r="N23" s="5" t="n">
-        <v>9.819507418181102</v>
+        <v>9.767796556430243</v>
       </c>
     </row>
     <row r="24">
@@ -1564,40 +1564,40 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>17.16332851441162</v>
+        <v>17.23930867729211</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>15.37164191816176</v>
+        <v>15.31963635934371</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>15.82654235017555</v>
+        <v>15.98439712870429</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>13.70087038338242</v>
+        <v>13.94594956154311</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>14.93386895417234</v>
+        <v>15.01819882558351</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>13.49823578777422</v>
+        <v>13.35497677533387</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>13.83020788512823</v>
+        <v>13.80593626501853</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>10.08100480600785</v>
+        <v>10.15688201049464</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>15.91771907211148</v>
+        <v>15.97043153790683</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>14.18478184305575</v>
+        <v>14.16473266337587</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>14.38770543671637</v>
+        <v>14.39893557493135</v>
       </c>
       <c r="N24" s="5" t="n">
-        <v>11.65188174681573</v>
+        <v>11.72249073553854</v>
       </c>
     </row>
     <row r="25">
@@ -1645,7 +1645,7 @@
         <v>12.83733930554417</v>
       </c>
       <c r="N25" s="5" t="n">
-        <v>14.31214520469347</v>
+        <v>14.31214520469348</v>
       </c>
     </row>
     <row r="26">
@@ -1656,40 +1656,40 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>16.88509537899941</v>
+        <v>16.87337683301424</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>16.1214294887451</v>
+        <v>16.08847584398191</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>12.98851239911586</v>
+        <v>13.02188564968702</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>15.21006132387597</v>
+        <v>15.15594099503237</v>
       </c>
       <c r="G26" s="5" t="n">
-        <v>11.15972354046267</v>
+        <v>11.0455886358535</v>
       </c>
       <c r="H26" s="5" t="n">
-        <v>11.51094888163106</v>
+        <v>11.53392046569014</v>
       </c>
       <c r="I26" s="5" t="n">
-        <v>10.40930883823059</v>
+        <v>10.43133344372095</v>
       </c>
       <c r="J26" s="5" t="n">
-        <v>10.42664021434003</v>
+        <v>10.30431832484634</v>
       </c>
       <c r="K26" s="5" t="n">
-        <v>15.05115799350485</v>
+        <v>15.02374422620863</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>14.374544462485</v>
+        <v>14.4046773771207</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>12.09518663720636</v>
+        <v>12.08020928663569</v>
       </c>
       <c r="N26" s="5" t="n">
-        <v>13.46517888524209</v>
+        <v>13.50087013727529</v>
       </c>
     </row>
     <row r="27">
@@ -1700,40 +1700,40 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>19.69445930043979</v>
+        <v>19.47971378816115</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>18.50495264305296</v>
+        <v>18.43042016120597</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>15.30865215735929</v>
+        <v>15.53147300582697</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>17.26084821194762</v>
+        <v>17.09322873981752</v>
       </c>
       <c r="G27" s="5" t="n">
-        <v>13.73507435788269</v>
+        <v>13.56540394612156</v>
       </c>
       <c r="H27" s="5" t="n">
-        <v>13.50596135712124</v>
+        <v>13.44879767545441</v>
       </c>
       <c r="I27" s="5" t="n">
-        <v>12.39334806189963</v>
+        <v>12.36657133897271</v>
       </c>
       <c r="J27" s="5" t="n">
-        <v>12.33699896187427</v>
+        <v>12.30722593796797</v>
       </c>
       <c r="K27" s="5" t="n">
-        <v>17.07510293990833</v>
+        <v>17.14575179137569</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>16.0602674970382</v>
+        <v>16.16296968096032</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>13.62656023490048</v>
+        <v>13.72177761422907</v>
       </c>
       <c r="N27" s="5" t="n">
-        <v>15.03590002339566</v>
+        <v>15.13261525299364</v>
       </c>
     </row>
     <row r="28">
@@ -1757,7 +1757,7 @@
         <v>14.1238418749168</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>13.76782725044669</v>
+        <v>13.7678272504467</v>
       </c>
       <c r="G28" s="5" t="n">
         <v>12.62208673707686</v>
@@ -1769,7 +1769,7 @@
         <v>10.95960013251299</v>
       </c>
       <c r="J28" s="5" t="n">
-        <v>9.612178041381124</v>
+        <v>9.612178041381123</v>
       </c>
       <c r="K28" s="5" t="n">
         <v>15.2288833181049</v>
@@ -1792,40 +1792,40 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>16.30067797116634</v>
+        <v>16.28793861000338</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>15.49126582755936</v>
+        <v>15.58739043621823</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>13.5998365569382</v>
+        <v>13.6115429732347</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>13.07126246692694</v>
+        <v>13.09683912006672</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>12.0773983994034</v>
+        <v>12.04238162310341</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>12.11559708366078</v>
+        <v>12.1058386303579</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>10.49415246322947</v>
+        <v>10.47739906890589</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>9.251404113755742</v>
+        <v>9.18657487532727</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>14.81004280076169</v>
+        <v>14.87383800952891</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>14.17309360589909</v>
+        <v>14.21679530827048</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>12.34395425628405</v>
+        <v>12.36870716049744</v>
       </c>
       <c r="N29" s="5" t="n">
-        <v>11.45435741953095</v>
+        <v>11.47551561455782</v>
       </c>
     </row>
     <row r="30">
@@ -1836,40 +1836,40 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>17.34363302424286</v>
+        <v>17.31066829008946</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>16.64895088545568</v>
+        <v>16.64921956141588</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>14.65506179297745</v>
+        <v>14.66941314457481</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>14.47993834620259</v>
+        <v>14.47863797286315</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>13.20103269987392</v>
+        <v>13.17399422255611</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>13.14100411095778</v>
+        <v>13.13311077501685</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>11.45567446107679</v>
+        <v>11.43265557861007</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>10.05648182226183</v>
+        <v>10.05151612858444</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>15.61884346172862</v>
+        <v>15.61871238522999</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>15.02674974106329</v>
+        <v>15.01146446068808</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>13.08360904164892</v>
+        <v>13.14198498912886</v>
       </c>
       <c r="N30" s="5" t="n">
-        <v>12.33727977299465</v>
+        <v>12.3255224703787</v>
       </c>
     </row>
     <row r="31">
